--- a/Application Testdata/test_data.xlsx
+++ b/Application Testdata/test_data.xlsx
@@ -57,6 +57,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -78,6 +79,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,14 +153,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,21 +213,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -240,21 +241,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
